--- a/doc/外部設計/04_外部設計書（終電時間表示）_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書（終電時間表示）_チーム名 のコピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64F779D1-54AF-476A-A352-9FCD49AE4369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D2A3C-0D8E-4B90-9E06-EA3648F1CDF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -206,19 +206,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5,終電マスタの終電時刻を表示する</t>
-    <rPh sb="2" eb="4">
-      <t>シュウデン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>シュウデンジコク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「１.ホームボタン」をタップした時</t>
   </si>
   <si>
@@ -242,27 +229,103 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「6,ホームに戻る」ボタンをタップしたとき</t>
+    <t>ホームに戻る</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホームに戻る</t>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ハンバーガーメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4,終電マスタの終電時刻を表示する</t>
+    <rPh sb="2" eb="4">
+      <t>シュウデン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シュウデンジコク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「５,ホームに戻る」ボタンをタップしたとき</t>
     <rPh sb="7" eb="8">
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ホームに戻る</t>
+    <t>終電時刻</t>
+    <rPh sb="0" eb="4">
+      <t>シュウデンジコク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「4,本日の終電時刻は」と表示する</t>
-    <rPh sb="3" eb="5">
-      <t>ホンジツ</t>
+    <t>登録ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
     </rPh>
-    <rPh sb="6" eb="10">
-      <t>シュウデンジコク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>last_trains</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -688,24 +751,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,9 +781,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,7 +799,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +869,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3498850" y="1384300"/>
+          <a:off x="3556000" y="1384300"/>
           <a:ext cx="2952750" cy="4692650"/>
           <a:chOff x="18073497" y="5307872"/>
           <a:chExt cx="2643483" cy="3852465"/>
@@ -1358,10 +1421,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549438" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -1377,7 +1440,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5695950" y="2921000"/>
+          <a:off x="5949950" y="3473450"/>
           <a:ext cx="549438" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1472,14 +1535,6 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -1492,12 +1547,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="549438" cy="530658"/>
+    <xdr:ext cx="549438" cy="742950"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="テキスト ボックス 15">
@@ -1511,8 +1566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5930900" y="3441700"/>
-          <a:ext cx="549438" cy="530658"/>
+          <a:off x="8274050" y="4203700"/>
+          <a:ext cx="549438" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1535,7 +1590,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -1615,7 +1670,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="549438" cy="968983"/>
+    <xdr:ext cx="549438" cy="997517"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
@@ -1630,7 +1685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5746750" y="4597400"/>
-          <a:ext cx="549438" cy="968983"/>
+          <a:ext cx="549438" cy="997517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1658,13 +1713,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>５</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
@@ -2003,164 +2063,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6328125" style="1"/>
+    <col min="1" max="10" width="3.6328125" style="1"/>
+    <col min="11" max="11" width="4.453125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="34" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="35" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="20"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="21" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38">
         <v>45085</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="24"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="36" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3103,7 +3165,7 @@
       <c r="AM27" s="7"/>
       <c r="AN27" s="7"/>
     </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="E28" s="8"/>
@@ -3143,7 +3205,7 @@
       <c r="AM28" s="7"/>
       <c r="AN28" s="7"/>
     </row>
-    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="E29" s="8"/>
@@ -3183,7 +3245,7 @@
       <c r="AM29" s="7"/>
       <c r="AN29" s="7"/>
     </row>
-    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="E30" s="8"/>
@@ -3223,7 +3285,7 @@
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
     </row>
-    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="E31" s="8"/>
@@ -3263,7 +3325,7 @@
       <c r="AM31" s="7"/>
       <c r="AN31" s="7"/>
     </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="E32" s="8"/>
@@ -3303,7 +3365,7 @@
       <c r="AM32" s="7"/>
       <c r="AN32" s="7"/>
     </row>
-    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="E33" s="8"/>
@@ -3343,7 +3405,7 @@
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
     </row>
-    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="E34" s="8"/>
@@ -3383,7 +3445,7 @@
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
     </row>
-    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="E35" s="8"/>
@@ -3423,7 +3485,7 @@
       <c r="AM35" s="7"/>
       <c r="AN35" s="7"/>
     </row>
-    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="E36" s="8"/>
@@ -3463,7 +3525,7 @@
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
     </row>
-    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
@@ -3505,7 +3567,7 @@
       <c r="AM37" s="7"/>
       <c r="AN37" s="7"/>
     </row>
-    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -3547,7 +3609,7 @@
       <c r="AM38" s="11"/>
       <c r="AN38" s="7"/>
     </row>
-    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3589,7 +3651,7 @@
       <c r="AM39" s="10"/>
       <c r="AN39" s="11"/>
     </row>
-    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -3631,7 +3693,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="5"/>
     </row>
-    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
         <v>9</v>
@@ -3803,13 +3865,13 @@
       <c r="AM44" s="7"/>
       <c r="AN44" s="7"/>
     </row>
-    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -3847,7 +3909,7 @@
       <c r="AM45" s="7"/>
       <c r="AN45" s="7"/>
     </row>
-    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
@@ -3935,7 +3997,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="E48" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -3977,7 +4039,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="E49" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -4059,7 +4121,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="E51" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -4141,7 +4203,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4183,7 +4245,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="E54" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -4225,7 +4287,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="E55" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -4267,7 +4329,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="E56" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -4309,7 +4371,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="E57" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -4347,12 +4409,9 @@
       <c r="AM57" s="7"/>
       <c r="AN57" s="7"/>
     </row>
-    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="E58" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -4389,12 +4448,10 @@
       <c r="AM58" s="7"/>
       <c r="AN58" s="7"/>
     </row>
-    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -4431,12 +4488,9 @@
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
     </row>
-    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="E60" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -4473,10 +4527,12 @@
       <c r="AM60" s="7"/>
       <c r="AN60" s="7"/>
     </row>
-    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="E61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -4513,10 +4569,12 @@
       <c r="AM61" s="7"/>
       <c r="AN61" s="7"/>
     </row>
-    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="E62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -4553,7 +4611,7 @@
       <c r="AM62" s="7"/>
       <c r="AN62" s="7"/>
     </row>
-    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="8"/>
@@ -4593,7 +4651,7 @@
       <c r="AM63" s="7"/>
       <c r="AN63" s="7"/>
     </row>
-    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="E64" s="8"/>
@@ -4633,7 +4691,7 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="E65" s="8"/>
@@ -4673,7 +4731,7 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="E66" s="8"/>
@@ -4713,7 +4771,7 @@
       <c r="AM66" s="7"/>
       <c r="AN66" s="7"/>
     </row>
-    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="8"/>
@@ -4753,7 +4811,7 @@
       <c r="AM67" s="7"/>
       <c r="AN67" s="7"/>
     </row>
-    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="E68" s="8"/>
@@ -4793,7 +4851,7 @@
       <c r="AM68" s="7"/>
       <c r="AN68" s="7"/>
     </row>
-    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="8"/>
@@ -4833,7 +4891,7 @@
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
     </row>
-    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="E70" s="8"/>
@@ -4873,7 +4931,7 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="E71" s="8"/>
@@ -4913,7 +4971,7 @@
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
     </row>
-    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
@@ -4955,7 +5013,7 @@
       <c r="AM72" s="7"/>
       <c r="AN72" s="7"/>
     </row>
-    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
@@ -4997,7 +5055,7 @@
       <c r="AM73" s="11"/>
       <c r="AN73" s="7"/>
     </row>
-    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5039,7 +5097,7 @@
       <c r="AM74" s="10"/>
       <c r="AN74" s="11"/>
     </row>
-    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5081,7 +5139,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="5"/>
     </row>
-    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="3" t="s">
         <v>10</v>
@@ -5125,7 +5183,7 @@
       <c r="AM76" s="5"/>
       <c r="AN76" s="7"/>
     </row>
-    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -5167,7 +5225,7 @@
       <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
     </row>
-    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="12" t="s">
         <v>11</v>
@@ -5229,19 +5287,27 @@
       <c r="AM78" s="18"/>
       <c r="AN78" s="7"/>
     </row>
-    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
       <c r="O79" s="14"/>
@@ -5271,19 +5337,27 @@
       <c r="AM79" s="18"/>
       <c r="AN79" s="7"/>
     </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14"/>
@@ -5313,19 +5387,27 @@
       <c r="AM80" s="18"/>
       <c r="AN80" s="7"/>
     </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14"/>
@@ -5355,22 +5437,32 @@
       <c r="AM81" s="18"/>
       <c r="AN81" s="7"/>
     </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -5378,11 +5470,15 @@
       <c r="T82" s="17"/>
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
-      <c r="W82" s="14"/>
+      <c r="W82" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
+      <c r="AA82" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14"/>
@@ -5397,19 +5493,27 @@
       <c r="AM82" s="18"/>
       <c r="AN82" s="7"/>
     </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13">
+        <v>5</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14"/>
@@ -5439,7 +5543,7 @@
       <c r="AM83" s="18"/>
       <c r="AN83" s="7"/>
     </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
       <c r="C84" s="13"/>
@@ -5481,7 +5585,7 @@
       <c r="AM84" s="18"/>
       <c r="AN84" s="7"/>
     </row>
-    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13"/>
@@ -5523,7 +5627,7 @@
       <c r="AM85" s="18"/>
       <c r="AN85" s="7"/>
     </row>
-    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
       <c r="C86" s="13"/>
@@ -5565,7 +5669,7 @@
       <c r="AM86" s="18"/>
       <c r="AN86" s="7"/>
     </row>
-    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
@@ -5607,7 +5711,7 @@
       <c r="AM87" s="18"/>
       <c r="AN87" s="7"/>
     </row>
-    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
@@ -5649,7 +5753,7 @@
       <c r="AM88" s="18"/>
       <c r="AN88" s="7"/>
     </row>
-    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
@@ -5691,7 +5795,7 @@
       <c r="AM89" s="18"/>
       <c r="AN89" s="7"/>
     </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
@@ -5733,7 +5837,7 @@
       <c r="AM90" s="18"/>
       <c r="AN90" s="7"/>
     </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
@@ -5775,7 +5879,7 @@
       <c r="AM91" s="18"/>
       <c r="AN91" s="7"/>
     </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
@@ -5817,7 +5921,7 @@
       <c r="AM92" s="18"/>
       <c r="AN92" s="7"/>
     </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
@@ -5859,7 +5963,7 @@
       <c r="AM93" s="18"/>
       <c r="AN93" s="7"/>
     </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
@@ -5901,7 +6005,7 @@
       <c r="AM94" s="18"/>
       <c r="AN94" s="7"/>
     </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
@@ -5943,7 +6047,7 @@
       <c r="AM95" s="18"/>
       <c r="AN95" s="7"/>
     </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
       <c r="C96" s="13"/>
@@ -5985,7 +6089,7 @@
       <c r="AM96" s="18"/>
       <c r="AN96" s="7"/>
     </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="12"/>
       <c r="C97" s="13"/>
@@ -6027,7 +6131,7 @@
       <c r="AM97" s="18"/>
       <c r="AN97" s="7"/>
     </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="12"/>
       <c r="C98" s="13"/>
@@ -6069,7 +6173,7 @@
       <c r="AM98" s="18"/>
       <c r="AN98" s="7"/>
     </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="12"/>
       <c r="C99" s="13"/>
@@ -6111,7 +6215,7 @@
       <c r="AM99" s="18"/>
       <c r="AN99" s="7"/>
     </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="12"/>
       <c r="C100" s="13"/>
@@ -6153,7 +6257,7 @@
       <c r="AM100" s="18"/>
       <c r="AN100" s="7"/>
     </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="12"/>
       <c r="C101" s="13"/>
@@ -6195,7 +6299,7 @@
       <c r="AM101" s="18"/>
       <c r="AN101" s="7"/>
     </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="12"/>
       <c r="C102" s="13"/>
@@ -6237,7 +6341,7 @@
       <c r="AM102" s="18"/>
       <c r="AN102" s="7"/>
     </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="12"/>
       <c r="C103" s="13"/>
@@ -6279,7 +6383,7 @@
       <c r="AM103" s="18"/>
       <c r="AN103" s="7"/>
     </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="12"/>
       <c r="C104" s="13"/>
@@ -6321,7 +6425,7 @@
       <c r="AM104" s="18"/>
       <c r="AN104" s="7"/>
     </row>
-    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="12"/>
       <c r="C105" s="13"/>
@@ -6363,7 +6467,7 @@
       <c r="AM105" s="18"/>
       <c r="AN105" s="7"/>
     </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="12"/>
       <c r="C106" s="13"/>
@@ -6405,7 +6509,7 @@
       <c r="AM106" s="18"/>
       <c r="AN106" s="7"/>
     </row>
-    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="12"/>
       <c r="C107" s="13"/>
@@ -6447,7 +6551,7 @@
       <c r="AM107" s="18"/>
       <c r="AN107" s="7"/>
     </row>
-    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="12"/>
       <c r="C108" s="13"/>
@@ -6489,7 +6593,7 @@
       <c r="AM108" s="18"/>
       <c r="AN108" s="7"/>
     </row>
-    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>

--- a/doc/外部設計/04_外部設計書（終電時間表示）_チーム名 のコピー.xlsx
+++ b/doc/外部設計/04_外部設計書（終電時間表示）_チーム名 のコピー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D2A3C-0D8E-4B90-9E06-EA3648F1CDF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8235B48-E8C5-46DE-8152-993EC81AB0F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -252,26 +252,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>4,終電マスタの終電時刻を表示する</t>
-    <rPh sb="2" eb="4">
-      <t>シュウデン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>シュウデンジコク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「５,ホームに戻る」ボタンをタップしたとき</t>
-    <rPh sb="7" eb="8">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>終電時刻</t>
     <rPh sb="0" eb="4">
       <t>シュウデンジコク</t>
@@ -328,6 +308,80 @@
     <t>submit</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>６,終電マスタの終電時刻を表示する</t>
+    <rPh sb="2" eb="4">
+      <t>シュウデン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シュウデンジコク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>５,現在地からの最寄り駅と路線名を表示する</t>
+    <rPh sb="2" eb="5">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ロセンメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「７,ホームに戻る」ボタンをタップしたとき</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「4,本日の最終電車は」</t>
+    <rPh sb="3" eb="5">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>サイシュウデンシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>station</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>路線駅名表示</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>エキメイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>終電案内</t>
+    <rPh sb="0" eb="4">
+      <t>シュウデンアンナイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>guide</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -336,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -380,6 +434,12 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -701,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,6 +883,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -845,14 +906,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>184150</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -869,7 +930,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3556000" y="1384300"/>
+          <a:off x="3638550" y="1384300"/>
           <a:ext cx="2952750" cy="4692650"/>
           <a:chOff x="18073497" y="5307872"/>
           <a:chExt cx="2643483" cy="3852465"/>
@@ -1124,7 +1185,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6946900" y="2317750"/>
+              <a:off x="6958207" y="1650334"/>
               <a:ext cx="2101850" cy="254000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1422,11 +1483,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="549438" cy="530658"/>
+    <xdr:ext cx="549438" cy="559192"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
@@ -1440,8 +1501,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5949950" y="3473450"/>
-          <a:ext cx="549438" cy="530658"/>
+          <a:off x="6045200" y="2825750"/>
+          <a:ext cx="549438" cy="559192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,18 +1530,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>５</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1488,10 +1544,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549438" cy="530658"/>
     <xdr:sp macro="" textlink="">
@@ -1507,7 +1563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5994400" y="3492500"/>
+          <a:off x="8604250" y="3092450"/>
           <a:ext cx="549438" cy="530658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1665,10 +1721,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="549438" cy="997517"/>
     <xdr:sp macro="" textlink="">
@@ -1684,7 +1740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5746750" y="4597400"/>
+          <a:off x="6159500" y="3441700"/>
           <a:ext cx="549438" cy="997517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1718,7 +1774,215 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>５</a:t>
+            <a:t>６</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ECB07A-260A-427A-9797-B5756B804B18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3994150" y="2787650"/>
+          <a:ext cx="2451100" cy="679450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020800000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="HGP創英ﾌﾟﾚｾﾞﾝｽEB" panose="02020800000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>○○線　○○駅</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="501650" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA36C7D-216F-4E05-ABFD-F64A1A375368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="2032000"/>
+          <a:ext cx="501650" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>４</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="549438" cy="997517"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0867F67-A0BB-4E4E-86F6-08C567390E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="4597400"/>
+          <a:ext cx="549438" cy="997517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>７</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800" b="1">
             <a:solidFill>
@@ -2063,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2805,7 +3069,7 @@
       <c r="AM18" s="7"/>
       <c r="AN18" s="7"/>
     </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="E19" s="8"/>
@@ -2835,7 +3099,7 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
+      <c r="AF19" s="43"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
@@ -3870,8 +4134,8 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>37</v>
+      <c r="E45" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -3914,7 +4178,9 @@
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -4451,7 +4717,9 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -4531,7 +4799,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -5294,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
@@ -5306,7 +5574,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -5344,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
@@ -5356,7 +5624,7 @@
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -5394,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
@@ -5406,7 +5674,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -5440,29 +5708,23 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13">
+      <c r="C82" s="1">
         <v>4</v>
       </c>
-      <c r="D82" s="14" t="s">
-        <v>49</v>
+      <c r="D82" s="1" t="s">
+        <v>57</v>
       </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14" t="s">
-        <v>39</v>
+      <c r="H82" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14" t="s">
-        <v>50</v>
+      <c r="L82" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14" t="s">
-        <v>47</v>
-      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -5470,15 +5732,9 @@
       <c r="T82" s="17"/>
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
-      <c r="W82" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
-      <c r="AA82" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
       <c r="AD82" s="14"/>
@@ -5499,20 +5755,20 @@
       <c r="C83" s="13">
         <v>5</v>
       </c>
-      <c r="D83" s="14" t="s">
-        <v>44</v>
+      <c r="D83" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14" t="s">
-        <v>40</v>
+      <c r="H83" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14" t="s">
-        <v>51</v>
+      <c r="L83" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -5546,19 +5802,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13">
+        <v>6</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
+      <c r="O84" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
@@ -5566,11 +5832,15 @@
       <c r="T84" s="17"/>
       <c r="U84" s="14"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
+      <c r="W84" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
+      <c r="AA84" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
       <c r="AD84" s="14"/>
@@ -5588,16 +5858,24 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="13">
+        <v>7</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14"/>
